--- a/biology/Biochimie/Chimie_combinatoire/Chimie_combinatoire.xlsx
+++ b/biology/Biochimie/Chimie_combinatoire/Chimie_combinatoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chimie combinatoire combine (au hasard ou parfois, à ses débuts, puis de manière automatique et codifiée ensuite) des molécules ou structures apparentées pour former des matières à propriétés nouvelles via des synthèses divergentes, par exemple.
 Elle est née de la génomique et de la protéomique qui cherchent à étudier le fonctionnement du Vivant aux échelles les plus petites, notamment pour trouver de nouvelles cibles thérapeutiques, constituant pour cela des ciblothèques.
@@ -513,7 +525,9 @@
           <t>Limites et risques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le domaine de la biochimie, ces molécules peuvent exister dans la nature ou n’ont pas été retenues par elle. Nombre d’entre elles sont très instables ou sont toxiques à court, moyen et long terme pour des cellules, des organes et/ou des organismes ou pour l’Environnement. Parfois elles ne sont pas utiles ou toxiques, mais peuvent le devenir par combinaison avec d’autres ou dans certaines circonstances. 
 Un des enjeux de la biochimie est d’identifier les mécanismes de leur toxicité ou de leur activité biochimique ou enzymatique pour pouvoir automatiquement classer ces molécules pour leur potentiel économique ou d’utilité. 
@@ -554,7 +568,9 @@
           <t>Enjeux économiques et éthiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les promoteurs de ces techniques (laboratoires RI d'entreprises spécialisées sur le marché) arguent de gains de compétitivité par la diminution des coûts et du temps de recherche avant la découverte et le brevetage. A contrario certains alertent sur la tendance au monopole sur un marché, sur les dérives liées à la propriété industrielle, sur le risque de mise sur le marché de molécules dont on n’aurait pas repéré certains potentiels de dangerosité, ou encore sur le risque de spoliation du bénéfice de l’exploitation de molécules découvertes à partir de ressources surtout basées dans les pays du Sud.
 </t>
